--- a/GunfireDungeon_Godot/excel/BuffPropBase.xlsx
+++ b/GunfireDungeon_Godot/excel/BuffPropBase.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17040"/>
+    <workbookView windowWidth="28290" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -54,9 +67,6 @@
     <t>{string:[object]}*</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
@@ -66,9 +76,6 @@
     <t>"MoveSpeed": [30]</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
     <t>心之容器</t>
   </si>
   <si>
@@ -78,9 +85,6 @@
     <t>"MaxHp":[2]</t>
   </si>
   <si>
-    <t>0003</t>
-  </si>
-  <si>
     <t>护盾</t>
   </si>
   <si>
@@ -90,9 +94,6 @@
     <t>"MaxShield":[1]</t>
   </si>
   <si>
-    <t>0004</t>
-  </si>
-  <si>
     <t>护盾计时器</t>
   </si>
   <si>
@@ -102,9 +103,6 @@
     <t>"ShieldRecoveryTime":[2.5]</t>
   </si>
   <si>
-    <t>0005</t>
-  </si>
-  <si>
     <t>杀伤弹</t>
   </si>
   <si>
@@ -114,9 +112,6 @@
     <t>"BulletDamage":[2,0.2]</t>
   </si>
   <si>
-    <t>0006</t>
-  </si>
-  <si>
     <t>红宝石戒指</t>
   </si>
   <si>
@@ -126,9 +121,6 @@
     <t>"WoundedInvincibleTime":[2]</t>
   </si>
   <si>
-    <t>0007</t>
-  </si>
-  <si>
     <t>备用护盾</t>
   </si>
   <si>
@@ -138,9 +130,6 @@
     <t>"OffsetInjury":[0.15]</t>
   </si>
   <si>
-    <t>0008</t>
-  </si>
-  <si>
     <t>眼镜</t>
   </si>
   <si>
@@ -148,9 +137,6 @@
   </si>
   <si>
     <t>"Scattering":[0.5]</t>
-  </si>
-  <si>
-    <t>0009</t>
   </si>
   <si>
     <t>高速子弹</t>
@@ -161,9 +147,6 @@
   <si>
     <t>"BulletSpeed":[2,0.25],
 "BulletDistance":[2,0.25]</t>
-  </si>
-  <si>
-    <t>0010</t>
   </si>
   <si>
     <t>分裂子弹</t>
@@ -179,9 +162,6 @@
 "RandomBulletSpeed":[-0.05,0.05]</t>
   </si>
   <si>
-    <t>0011</t>
-  </si>
-  <si>
     <t>弹射子弹</t>
   </si>
   <si>
@@ -191,9 +171,6 @@
     <t>"BulletBounceCount":[2]</t>
   </si>
   <si>
-    <t>0012</t>
-  </si>
-  <si>
     <t>穿透子弹</t>
   </si>
   <si>
@@ -203,9 +180,6 @@
     <t>"BulletPenetration":[1]</t>
   </si>
   <si>
-    <t>0013</t>
-  </si>
-  <si>
     <t>武器背包</t>
   </si>
   <si>
@@ -213,9 +187,6 @@
   </si>
   <si>
     <t>"WeaponCapacity":[1]</t>
-  </si>
-  <si>
-    <t>0014</t>
   </si>
   <si>
     <t>道具背包</t>
@@ -1494,14 +1465,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7692307692308" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.2333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.55" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7666666666667" style="4" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1547,200 +1518,166 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="33" customHeight="1" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7" ht="33" customHeight="1" spans="1:4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:4">
-      <c r="A7" s="6" t="s">
+    <row r="8" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
-      <c r="A10" s="6" t="s">
+    <row r="12" ht="33" customHeight="1" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="13" ht="87" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="2:4">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" ht="87" customHeight="1" spans="1:4">
-      <c r="A13" s="2" t="s">
+    <row r="16" ht="29" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D16" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="17" ht="34" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" ht="28" customHeight="1" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="36" customHeight="1" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" ht="29" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" ht="34" customHeight="1" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1"/>
@@ -1808,9 +1745,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A13" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1823,99 +1757,99 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="164.413461538462" customWidth="1"/>
+    <col min="2" max="2" width="164.416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1868,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
